--- a/data/trans_bre/P34_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P34_R-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-14.65350869785095</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-7.776785567932248</v>
+        <v>-7.776785567932254</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.159319203404705</v>
@@ -649,7 +649,7 @@
         <v>-0.3245985099875719</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.1594994595687098</v>
+        <v>-0.1594994595687099</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-14.70440151625053</v>
+        <v>-15.03619049124577</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.299713081832564</v>
+        <v>-8.951157157435381</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-21.96409432774616</v>
+        <v>-21.81952729538582</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-13.78577680487769</v>
+        <v>-13.49864227109577</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3009416972742127</v>
+        <v>-0.3014662205716313</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2590237692616496</v>
+        <v>-0.2528097948341358</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4453556311462467</v>
+        <v>-0.4578995973976843</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2664516066685515</v>
+        <v>-0.264009619614959</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07809547043927101</v>
+        <v>0.4750604470102395</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.929922627827367</v>
+        <v>6.17619154211477</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-7.76849927752292</v>
+        <v>-7.386787021961781</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-1.38625576268363</v>
+        <v>-1.810004852022704</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.002388304582873537</v>
+        <v>0.02443739949756182</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1708032813932689</v>
+        <v>0.2032967330008528</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.1840603960758031</v>
+        <v>-0.1764482520423515</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.03419426168812548</v>
+        <v>-0.04129324387678017</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-8.960968205287323</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.044573186664533</v>
+        <v>2.044573186664544</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01142016902377376</v>
@@ -749,7 +749,7 @@
         <v>-0.1863867375032833</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.04142148261419486</v>
+        <v>0.04142148261419509</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-6.14687525605668</v>
+        <v>-6.840535739479717</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-13.68354279866352</v>
+        <v>-14.52902565670755</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-16.70463716632174</v>
+        <v>-16.31158623068583</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.390558297292278</v>
+        <v>-4.105145433261558</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1092072295459555</v>
+        <v>-0.1179523134330979</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3222188709127931</v>
+        <v>-0.3294947673473256</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.320406304261159</v>
+        <v>-0.3221148604937206</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.08126423469316377</v>
+        <v>-0.07839675474627471</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.580109280061345</v>
+        <v>7.417214774330157</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7353026608093228</v>
+        <v>0.2828155010977959</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-1.602202825181671</v>
+        <v>-1.600967204135378</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.458768755315685</v>
+        <v>9.034228258302717</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1792710975422512</v>
+        <v>0.1556747186736703</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02408882939765666</v>
+        <v>0.01094116605333337</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.03561950205170938</v>
+        <v>-0.03557593993231719</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1836573568468359</v>
+        <v>0.1989295499623628</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.631569330756563</v>
+        <v>-8.342609050893911</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.566804713787342</v>
+        <v>-4.016986406744335</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.050041928413834</v>
+        <v>-5.804137142764239</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.5319700048392983</v>
+        <v>-0.3104360416258045</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3277135343165924</v>
+        <v>-0.3719023808902198</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1829990502156247</v>
+        <v>-0.1684899328946458</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1626854227555881</v>
+        <v>-0.1907710779098205</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.01920292848583011</v>
+        <v>-0.01353036657346972</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.857887756533762</v>
+        <v>5.891092783536762</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.755444155140664</v>
+        <v>9.337321748829968</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.50556361187772</v>
+        <v>12.68127051828003</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13.17407756767988</v>
+        <v>13.52412916623576</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3473217079538857</v>
+        <v>0.2911119751985009</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4416856767429299</v>
+        <v>0.4715267689145617</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.487167069053026</v>
+        <v>0.4771557887578438</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5982897213480564</v>
+        <v>0.6012858130147876</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-12.36544978314151</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-10.24282293229274</v>
+        <v>-10.24282293229273</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.4394568515420452</v>
@@ -949,7 +949,7 @@
         <v>-0.3812711664847102</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.3295699215317893</v>
+        <v>-0.329569921531789</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-18.61591107423369</v>
+        <v>-18.33756699580473</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-15.6872821450637</v>
+        <v>-15.13856960328962</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-16.3363276513223</v>
+        <v>-16.37905746531396</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-14.03541287385748</v>
+        <v>-13.86923154474094</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.540691787936714</v>
+        <v>-0.5403741886203547</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5237039045542364</v>
+        <v>-0.5161573722068449</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4807531586920856</v>
+        <v>-0.478300839268101</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4245321957788183</v>
+        <v>-0.4218199919423464</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-10.49510830413558</v>
+        <v>-10.03542973034826</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-7.309328403406447</v>
+        <v>-7.470798187459921</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-8.451943267882728</v>
+        <v>-8.233881827845037</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-6.530708840777416</v>
+        <v>-6.503964240754794</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.3363439510304995</v>
+        <v>-0.3185789361073028</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.283508488909067</v>
+        <v>-0.2904165693587194</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.2718254642644568</v>
+        <v>-0.272152516731159</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2231143767134513</v>
+        <v>-0.2257773458965594</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-19.03069958802947</v>
+        <v>-18.69406169267513</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.040572203303768</v>
+        <v>-7.960466135736917</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-12.93923920699333</v>
+        <v>-12.9484679730236</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.729749863677942</v>
+        <v>-2.336582925997059</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5916803735916658</v>
+        <v>-0.5900150337326858</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2387367012345987</v>
+        <v>-0.2631783951555975</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3735681775720781</v>
+        <v>-0.3705681829660485</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.06368273041170859</v>
+        <v>-0.08268149908625523</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-7.334847388245083</v>
+        <v>-7.657270880133882</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.771509984049753</v>
+        <v>2.225225856105118</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-2.644965573046663</v>
+        <v>-2.935181580040778</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.05876004976537</v>
+        <v>6.729508968067732</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.3041556214338432</v>
+        <v>-0.2997848389883806</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1148590062206694</v>
+        <v>0.09816268230054911</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.09242084909506269</v>
+        <v>-0.09439282323634379</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.3461344571418024</v>
+        <v>0.3295356366330885</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-6.861753078920074</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3.530374682043097</v>
+        <v>3.530374682043091</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.50318029762698</v>
@@ -1149,7 +1149,7 @@
         <v>-0.140132087079652</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.08625632439807308</v>
+        <v>0.08625632439807294</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-45.24437762703478</v>
+        <v>-45.43183780761125</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-28.88725044111714</v>
+        <v>-28.82118677105158</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-13.75811096872949</v>
+        <v>-13.24970216108529</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-7.941779914050939</v>
+        <v>-7.908652096190437</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5500706480449441</v>
+        <v>-0.5502746343913378</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4303598910272576</v>
+        <v>-0.418138618684372</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2553898177178002</v>
+        <v>-0.2459488268224037</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1558024286921477</v>
+        <v>-0.1525301082569867</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-34.07742368215118</v>
+        <v>-34.11143074231414</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-15.95245343954553</v>
+        <v>-15.58481590965723</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-0.5574537172817586</v>
+        <v>0.1701720507105339</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13.52306840387978</v>
+        <v>14.0606505629802</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.4557748995579326</v>
+        <v>-0.4535613428308962</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.2743091227429238</v>
+        <v>-0.2667791325431667</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.0134119438844104</v>
+        <v>0.00406691199180635</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4177789061874757</v>
+        <v>0.4535003799606927</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-5.249634532240033</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-0.7249317071741368</v>
+        <v>-0.7249317071741312</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.1922438543484864</v>
@@ -1249,7 +1249,7 @@
         <v>-0.1436153239574586</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.02063716631972059</v>
+        <v>-0.02063716631972044</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-9.860407688655521</v>
+        <v>-9.774919453770487</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.29050613804147</v>
+        <v>-4.517874160597738</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-7.60879467220338</v>
+        <v>-7.385596827481083</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.060338955742152</v>
+        <v>-3.13067163338928</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2484759543510532</v>
+        <v>-0.2459494060425218</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.1302989263187808</v>
+        <v>-0.1408721097414631</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.202886498502703</v>
+        <v>-0.197590451544522</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.08405490128387408</v>
+        <v>-0.0847671627869853</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-4.959799469711116</v>
+        <v>-4.979865792527193</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3399284598217653</v>
+        <v>0.2246236626694836</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-2.743764760192709</v>
+        <v>-2.895996976745524</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.404004938704003</v>
+        <v>1.527022132915588</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.1326058358530074</v>
+        <v>-0.1351594877090429</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01178193986624562</v>
+        <v>0.005298267923764582</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.07592641823619622</v>
+        <v>-0.08191077462148719</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.04122361751452486</v>
+        <v>0.04604418242239075</v>
       </c>
     </row>
     <row r="25">
